--- a/data/trans_dic/P15B_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Edad-trans_dic.xlsx
@@ -724,22 +724,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,37; 30,21</t>
+          <t>5,74; 29,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 16,35</t>
+          <t>2,82; 16,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,78</t>
+          <t>0,0; 13,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 80,37</t>
+          <t>0,0; 79,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,37 +749,37 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,05</t>
+          <t>0,0; 15,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,63</t>
+          <t>0,0; 35,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,8</t>
+          <t>0,0; 52,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,22; 21,98</t>
+          <t>4,06; 23,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,21; 12,53</t>
+          <t>2,16; 12,27</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,54; 13,13</t>
+          <t>1,55; 11,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,1; 49,96</t>
+          <t>7,83; 54,48</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,17; 51,72</t>
+          <t>17,32; 52,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,33; 36,78</t>
+          <t>17,35; 35,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,48; 37,38</t>
+          <t>14,06; 38,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,58; 64,45</t>
+          <t>14,72; 64,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,56; 54,09</t>
+          <t>10,62; 54,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,0; 28,25</t>
+          <t>2,96; 28,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,38; 38,61</t>
+          <t>4,65; 36,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,26</t>
+          <t>0,0; 42,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,13; 45,84</t>
+          <t>19,67; 46,74</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,17; 28,98</t>
+          <t>14,2; 29,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,75; 32,8</t>
+          <t>13,43; 34,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,66; 42,67</t>
+          <t>13,15; 45,48</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,12; 75,96</t>
+          <t>27,21; 74,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,91; 38,2</t>
+          <t>13,88; 38,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,95; 41,59</t>
+          <t>10,57; 40,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,36; 43,15</t>
+          <t>12,14; 41,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,36</t>
+          <t>0,0; 43,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,68</t>
+          <t>0,0; 20,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,9</t>
+          <t>0,0; 23,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 22,77</t>
+          <t>2,57; 21,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,74; 52,6</t>
+          <t>17,76; 56,43</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,72; 28,76</t>
+          <t>10,88; 28,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,17; 29,33</t>
+          <t>8,62; 28,74</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,55; 30,11</t>
+          <t>9,27; 29,68</t>
         </is>
       </c>
     </row>
@@ -1144,22 +1144,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,81; 89,22</t>
+          <t>40,51; 88,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,14; 61,06</t>
+          <t>28,72; 60,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,26; 41,76</t>
+          <t>7,42; 39,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,12; 40,5</t>
+          <t>14,98; 41,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,37 +1169,37 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,05; 31,7</t>
+          <t>3,12; 30,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,01; 31,27</t>
+          <t>3,95; 31,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,55; 21,81</t>
+          <t>2,53; 19,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,91; 73,54</t>
+          <t>34,61; 73,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,15; 39,58</t>
+          <t>19,18; 41,35</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,47; 29,95</t>
+          <t>7,96; 30,98</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,46; 29,39</t>
+          <t>11,66; 29,15</t>
         </is>
       </c>
     </row>
@@ -1284,22 +1284,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,41</t>
+          <t>0,0; 58,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,63; 74,58</t>
+          <t>23,67; 74,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,22</t>
+          <t>0,0; 37,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,38; 49,48</t>
+          <t>17,21; 49,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,37 +1309,37 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,71</t>
+          <t>0,0; 12,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,22; 28,75</t>
+          <t>3,24; 28,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,85; 26,67</t>
+          <t>8,38; 26,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,27</t>
+          <t>0,0; 32,32</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,6; 23,95</t>
+          <t>5,86; 24,76</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,38; 21,95</t>
+          <t>2,36; 22,68</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,82; 32,7</t>
+          <t>14,24; 32,56</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,93</t>
+          <t>0,0; 11,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,53</t>
+          <t>0,0; 2,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,97</t>
+          <t>0,0; 4,89</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,55</t>
+          <t>0,0; 4,13</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>24,28; 42,1</t>
+          <t>23,47; 41,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,04; 26,7</t>
+          <t>16,88; 26,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,14; 20,34</t>
+          <t>10,64; 20,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,64; 31,44</t>
+          <t>17,13; 30,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,76; 18,12</t>
+          <t>5,19; 18,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,74; 9,02</t>
+          <t>2,68; 8,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,23; 11,91</t>
+          <t>4,24; 11,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,81; 11,94</t>
+          <t>4,71; 12,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,34; 28,92</t>
+          <t>16,92; 28,33</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>11,15; 17,12</t>
+          <t>11,17; 17,06</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,42; 15,08</t>
+          <t>8,15; 14,95</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,97; 19,43</t>
+          <t>11,46; 19,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P15B_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,74; 29,88</t>
+          <t>5,87; 31,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,82; 16,32</t>
+          <t>2,77; 17,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,16</t>
+          <t>0,0; 11,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,43</t>
+          <t>0,0; 14,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,68</t>
+          <t>0,0; 31,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,06; 23,92</t>
+          <t>4,47; 22,33</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,16; 12,27</t>
+          <t>2,12; 11,99</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 11,87</t>
+          <t>1,5; 12,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,32; 52,65</t>
+          <t>17,58; 52,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,35; 35,52</t>
+          <t>17,03; 36,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,06; 38,15</t>
+          <t>15,23; 38,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,62; 54,96</t>
+          <t>10,56; 54,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 28,31</t>
+          <t>3,07; 27,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,65; 36,95</t>
+          <t>4,64; 38,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,67; 46,74</t>
+          <t>19,08; 45,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,2; 29,49</t>
+          <t>13,96; 29,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,43; 34,68</t>
+          <t>14,95; 33,73</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,21; 74,36</t>
+          <t>26,47; 77,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,88; 38,76</t>
+          <t>13,34; 38,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,57; 40,01</t>
+          <t>10,63; 40,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,85</t>
+          <t>0,0; 37,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,71</t>
+          <t>0,0; 20,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,7</t>
+          <t>0,0; 23,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,76; 56,43</t>
+          <t>16,95; 55,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,88; 28,23</t>
+          <t>11,03; 28,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,62; 28,74</t>
+          <t>8,93; 30,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,51; 88,84</t>
+          <t>41,13; 86,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,72; 60,53</t>
+          <t>26,61; 60,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,42; 39,79</t>
+          <t>8,05; 41,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,19</t>
+          <t>0,0; 58,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,12; 30,84</t>
+          <t>3,1; 32,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 31,3</t>
+          <t>3,97; 30,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>34,61; 73,43</t>
+          <t>31,21; 71,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,18; 41,35</t>
+          <t>18,09; 41,05</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,96; 30,98</t>
+          <t>8,87; 30,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,06</t>
+          <t>0,0; 58,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,67; 74,81</t>
+          <t>23,39; 74,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,32</t>
+          <t>0,0; 37,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1309,12 +1309,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,2</t>
+          <t>0,0; 12,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,24; 28,18</t>
+          <t>3,35; 25,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,32</t>
+          <t>0,0; 32,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,86; 24,76</t>
+          <t>5,77; 24,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,36; 22,68</t>
+          <t>2,43; 22,03</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,33</t>
+          <t>0,0; 7,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,89</t>
+          <t>0,0; 4,99</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>23,47; 41,09</t>
+          <t>23,37; 40,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,88; 26,08</t>
+          <t>16,64; 26,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,64; 20,69</t>
+          <t>10,24; 20,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,19; 18,26</t>
+          <t>5,08; 17,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,68; 8,95</t>
+          <t>2,9; 9,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,24; 11,97</t>
+          <t>4,5; 12,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,92; 28,33</t>
+          <t>16,93; 29,15</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>11,17; 17,06</t>
+          <t>11,0; 17,6</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,15; 14,95</t>
+          <t>8,22; 14,39</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P15B_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,22 +724,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,87; 31,21</t>
+          <t>5,37; 30,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,77; 17,45</t>
+          <t>2,8; 16,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,52</t>
+          <t>0,0; 11,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 79,98</t>
+          <t>0,0; 80,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,37 +749,37 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,58</t>
+          <t>0,0; 15,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,97</t>
+          <t>0,0; 32,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,13</t>
+          <t>0,0; 51,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,47; 22,33</t>
+          <t>4,22; 21,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 11,99</t>
+          <t>2,21; 12,53</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 12,35</t>
+          <t>1,54; 13,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,83; 54,48</t>
+          <t>7,1; 49,96</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,58; 52,44</t>
+          <t>17,17; 51,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,03; 36,23</t>
+          <t>17,33; 36,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,23; 38,94</t>
+          <t>13,48; 37,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,72; 64,09</t>
+          <t>15,58; 64,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,56; 54,69</t>
+          <t>10,56; 54,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,07; 27,61</t>
+          <t>3,0; 28,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,64; 38,19</t>
+          <t>4,38; 38,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,01</t>
+          <t>0,0; 35,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,08; 45,73</t>
+          <t>19,13; 45,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,96; 29,8</t>
+          <t>14,17; 28,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,95; 33,73</t>
+          <t>13,75; 32,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,15; 45,48</t>
+          <t>11,66; 42,67</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,47; 77,41</t>
+          <t>23,12; 75,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,34; 38,27</t>
+          <t>14,91; 38,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,63; 40,26</t>
+          <t>10,95; 41,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,14; 41,38</t>
+          <t>12,36; 43,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,73</t>
+          <t>0,0; 37,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,72</t>
+          <t>0,0; 20,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,36</t>
+          <t>0,0; 22,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 21,7</t>
+          <t>2,72; 22,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,95; 55,81</t>
+          <t>17,74; 52,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,03; 28,88</t>
+          <t>10,72; 28,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,93; 30,13</t>
+          <t>8,17; 29,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,27; 29,68</t>
+          <t>10,55; 30,11</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>41,13; 86,96</t>
+          <t>42,81; 89,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,61; 60,04</t>
+          <t>29,14; 61,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,05; 41,91</t>
+          <t>10,26; 41,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,98; 41,18</t>
+          <t>13,12; 40,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,81</t>
+          <t>0,0; 58,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,1; 32,99</t>
+          <t>3,05; 31,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,97; 30,47</t>
+          <t>4,01; 31,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,53; 19,06</t>
+          <t>2,55; 21,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,21; 71,26</t>
+          <t>33,91; 73,54</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,09; 41,05</t>
+          <t>18,15; 39,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,87; 30,75</t>
+          <t>8,47; 29,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,66; 29,15</t>
+          <t>11,46; 29,39</t>
         </is>
       </c>
     </row>
@@ -1284,22 +1284,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,15</t>
+          <t>0,0; 58,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,39; 74,57</t>
+          <t>22,63; 74,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,67</t>
+          <t>0,0; 30,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,21; 49,99</t>
+          <t>16,38; 49,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,37 +1309,37 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,39</t>
+          <t>0,0; 10,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,35; 25,82</t>
+          <t>3,22; 28,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,38; 26,45</t>
+          <t>7,85; 26,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,99</t>
+          <t>0,0; 32,27</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,77; 24,69</t>
+          <t>5,6; 23,95</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,43; 22,03</t>
+          <t>2,38; 21,95</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,24; 32,56</t>
+          <t>14,82; 32,7</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,6</t>
+          <t>0,0; 11,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,38</t>
+          <t>0,0; 7,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,5</t>
+          <t>0,0; 2,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,99</t>
+          <t>0,0; 4,97</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,13</t>
+          <t>0,0; 3,55</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>23,37; 40,62</t>
+          <t>24,28; 42,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,64; 26,65</t>
+          <t>17,04; 26,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,24; 20,6</t>
+          <t>10,14; 20,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,13; 30,42</t>
+          <t>17,64; 31,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,08; 17,85</t>
+          <t>4,76; 18,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,9; 9,61</t>
+          <t>2,74; 9,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,5; 12,28</t>
+          <t>4,23; 11,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,71; 12,0</t>
+          <t>4,81; 11,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,93; 29,15</t>
+          <t>17,34; 28,92</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>11,0; 17,6</t>
+          <t>11,15; 17,12</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,22; 14,39</t>
+          <t>8,42; 15,08</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,46; 19,48</t>
+          <t>11,97; 19,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P15B_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31,01%</t>
+          <t>28,92%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>23,34%</t>
+          <t>22,46%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 80,37</t>
+          <t>0,0; 78,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,8</t>
+          <t>0,0; 49,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,1; 49,96</t>
+          <t>6,06; 50,48</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>36,93%</t>
+          <t>34,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>25,91%</t>
+          <t>24,94%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,58; 64,45</t>
+          <t>13,41; 61,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,26</t>
+          <t>0,0; 36,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,66; 42,67</t>
+          <t>10,96; 41,86</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>17,91%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,36; 43,15</t>
+          <t>12,53; 43,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 22,77</t>
+          <t>2,77; 22,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,55; 30,11</t>
+          <t>10,63; 29,14</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>18,99%</t>
+          <t>18,9%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,12; 40,5</t>
+          <t>12,98; 40,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,55; 21,81</t>
+          <t>2,38; 21,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,46; 29,39</t>
+          <t>11,34; 29,56</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>30,91%</t>
+          <t>31,74%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>16,35%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>22,62%</t>
+          <t>23,27%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,38; 49,48</t>
+          <t>16,82; 50,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,85; 26,67</t>
+          <t>8,24; 27,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,82; 32,7</t>
+          <t>15,27; 33,42</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1381,19 +1381,19 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>1,49%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,51%</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>2,79%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0; 30,57</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 11,15</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0; 15,69</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0; 5,03</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 22,49</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 17,08</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7,06</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>0; 6,57</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 11,93</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 6,15</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 7,33</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0; 3,19</t>
-        </is>
-      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,53</t>
+          <t>0,0; 8,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>0; 11,83</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,97</t>
+          <t>0; 4,44</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,18</t>
+          <t>0; 4,78</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,55</t>
+          <t>0,0; 10,75</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>32,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>22,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0; 26,42</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0; 8,64</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0; 10,53</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0; 4,9</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0; 9,05</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 10,85</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0; 5,96</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,71</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0; 7,06</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,73</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0; 3,9</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>32,09%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>21,67%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>14,94%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>23,35%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>10,11%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5,26%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>7,37%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7,38%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>22,58%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>13,95%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>11,22%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>15,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>24,28; 42,1</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>17,04; 26,7</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>10,14; 20,34</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>17,64; 31,44</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>17,31; 30,94</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>4,76; 18,12</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>2,74; 9,02</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>4,23; 11,91</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>4,81; 11,94</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4,73; 11,58</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>17,34; 28,92</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>11,15; 17,12</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>8,42; 15,08</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>11,97; 19,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>11,85; 19,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P15B_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,22 +725,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,37; 30,21</t>
+          <t>4,94; 28,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 16,35</t>
+          <t>3,05; 16,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,78</t>
+          <t>0,0; 11,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 78,84</t>
+          <t>0,0; 76,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,37 +750,37 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,05</t>
+          <t>0,0; 12,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,63</t>
+          <t>0,0; 32,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,59</t>
+          <t>0,0; 49,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,22; 21,98</t>
+          <t>4,42; 24,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,21; 12,53</t>
+          <t>2,11; 11,57</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,54; 13,13</t>
+          <t>1,52; 13,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,06; 50,48</t>
+          <t>7,94; 49,65</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,17; 51,72</t>
+          <t>17,49; 50,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,33; 36,78</t>
+          <t>17,68; 34,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,48; 37,38</t>
+          <t>15,36; 38,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,41; 61,1</t>
+          <t>15,13; 60,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,56; 54,09</t>
+          <t>10,96; 59,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,0; 28,25</t>
+          <t>3,03; 27,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,38; 38,61</t>
+          <t>4,61; 37,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,3</t>
+          <t>0,0; 36,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,13; 45,84</t>
+          <t>19,57; 44,9</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,17; 28,98</t>
+          <t>14,56; 29,52</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,75; 32,8</t>
+          <t>14,59; 33,97</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,96; 41,86</t>
+          <t>10,84; 44,51</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,12; 75,96</t>
+          <t>26,87; 80,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,91; 38,2</t>
+          <t>14,36; 39,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,95; 41,59</t>
+          <t>10,15; 39,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,53; 43,76</t>
+          <t>11,88; 42,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,36</t>
+          <t>0,0; 42,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,68</t>
+          <t>0,0; 20,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,9</t>
+          <t>0,0; 26,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 22,66</t>
+          <t>2,45; 22,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,74; 52,6</t>
+          <t>17,76; 55,41</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,72; 28,76</t>
+          <t>10,88; 27,89</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,17; 29,33</t>
+          <t>8,17; 27,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,63; 29,14</t>
+          <t>9,62; 29,99</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,81; 89,22</t>
+          <t>42,92; 88,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,14; 61,06</t>
+          <t>27,37; 60,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,26; 41,76</t>
+          <t>8,92; 43,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,98; 40,27</t>
+          <t>14,49; 41,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,19</t>
+          <t>0,0; 57,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,05; 31,7</t>
+          <t>3,09; 33,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,01; 31,27</t>
+          <t>4,07; 30,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 21,0</t>
+          <t>2,33; 18,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,91; 73,54</t>
+          <t>35,2; 72,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,15; 39,58</t>
+          <t>18,26; 39,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,47; 29,95</t>
+          <t>9,18; 31,39</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,34; 29,56</t>
+          <t>11,46; 29,52</t>
         </is>
       </c>
     </row>
@@ -1284,22 +1285,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,41</t>
+          <t>0,0; 57,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,63; 74,58</t>
+          <t>16,46; 82,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,22</t>
+          <t>0,0; 37,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,82; 50,41</t>
+          <t>16,79; 49,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,37 +1310,37 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,71</t>
+          <t>0,0; 13,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,22; 28,75</t>
+          <t>3,32; 27,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,24; 27,34</t>
+          <t>8,79; 26,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,27</t>
+          <t>0,0; 33,61</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,6; 23,95</t>
+          <t>5,65; 24,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,38; 21,95</t>
+          <t>2,37; 22,11</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,27; 33,42</t>
+          <t>14,89; 33,15</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1440,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,49</t>
+          <t>0,0; 22,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1460,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,19</t>
+          <t>0,0; 7,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,75</t>
+          <t>0,0; 9,0</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1590,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,85</t>
+          <t>0,0; 10,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1609,7 +1610,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,73</t>
+          <t>0,0; 7,72</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>24,28; 42,1</t>
+          <t>24,11; 41,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,04; 26,7</t>
+          <t>17,25; 27,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,14; 20,34</t>
+          <t>10,22; 20,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,31; 30,94</t>
+          <t>16,87; 30,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,76; 18,12</t>
+          <t>5,29; 18,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,74; 9,02</t>
+          <t>2,72; 9,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,23; 11,91</t>
+          <t>4,25; 11,95</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,73; 11,58</t>
+          <t>4,72; 11,74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>17,34; 28,92</t>
+          <t>17,09; 29,47</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>11,15; 17,12</t>
+          <t>11,11; 17,44</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8,42; 15,08</t>
+          <t>8,15; 14,55</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>11,85; 19,44</t>
+          <t>12,08; 19,7</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido un accidente en el trabajo en el último año</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4954</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4589</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5534</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>973</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3239</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>4954</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5562</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2936</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>8773</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1664; 9702</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1788; 9466</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5013</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14622</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1661</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3979</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5858</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 9797</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1958; 10680</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1908; 10457</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>932; 8168</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3101; 19395</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>11375</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>21269</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12800</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>9378</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5439</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4011</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1157</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>16814</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>25279</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16753</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>10534</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6110; 17564</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>14558; 28724</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7813; 19771</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4126; 16428</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2033; 10983</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1154; 10408</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1046; 8479</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5428</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>10467; 24018</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>17524; 35532</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>10731; 24978</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4577; 18802</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7682</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13716</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8278</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>8938</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1872</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2709</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9554</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>15676</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>10143</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>11647</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4012; 11985</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8123; 22084</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3638; 14337</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4397; 15580</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5743</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6049</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6723</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>686; 6191</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5034; 15706</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9348; 23974</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4975; 17022</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6254; 19504</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>13435</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>16317</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6459</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>12572</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2176</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4327</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3125</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2387</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>15612</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>20644</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>9584</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>14959</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>8385; 17258</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>10166; 22581</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2571; 12439</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>7212; 20652</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5568</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1083; 11574</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>996; 7524</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>686; 5484</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>10280; 21163</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>13177; 28615</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>4896; 16736</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>9069; 23364</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2046</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6305</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9182</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>993</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3208</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5788</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2046</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>7298</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4244</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>14970</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5391</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2126; 10631</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5242</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4857; 14232</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1686</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5515</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1007; 8235</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3110; 9385</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6467</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3091; 13413</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1050; 9803</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>9578; 21323</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1375</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1423</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1928</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1715</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3700</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1556</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1787</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1926</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2519</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1629</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1894</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1921</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4432</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1183</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1183</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1567</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1904</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1515</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1016</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2045</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5902</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2463</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0; 906</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2013</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5885</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2174</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0; 942</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>39493</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>62196</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>29542</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>46487</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>9488</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>13446</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>14118</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>15772</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>48980</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>75642</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>43660</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>62259</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>29670; 51103</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>49496; 77841</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>20213; 40504</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>33598; 60830</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>4963; 17783</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>6941; 23649</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>8146; 22882</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>10073; 25071</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>37066; 63918</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>60244; 94567</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>31716; 56626</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>49842; 81321</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>